--- a/team_project/src/course_equiv/course_equivalence_list.xlsx
+++ b/team_project/src/course_equiv/course_equivalence_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>CMPE2412</t>
   </si>
@@ -242,12 +242,25 @@
   </si>
   <si>
     <t>EE2213</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -580,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <selection activeCell="T5" sqref="T5"/>
@@ -685,11 +698,11 @@
       <c r="AF1" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" t="s">
-        <v>28</v>
-      </c>
       <c r="AH1" t="s">
         <v>29</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -789,11 +802,11 @@
       <c r="AF2" t="s">
         <v>57</v>
       </c>
-      <c r="AG2" t="s">
-        <v>58</v>
-      </c>
       <c r="AH2" t="s">
         <v>4</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -815,6 +828,9 @@
       <c r="AH3" t="s">
         <v>40</v>
       </c>
+      <c r="AI3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="V4" t="s">
@@ -822,6 +838,9 @@
       </c>
       <c r="AH4" t="s">
         <v>63</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
